--- a/results/bf-sensitivity-analysis.xlsx
+++ b/results/bf-sensitivity-analysis.xlsx
@@ -442,38 +442,38 @@
         </is>
       </c>
       <c r="C2">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D2">
-        <v>-0.2356296255923123</v>
+        <v>-0.2391790907301002</v>
       </c>
       <c r="E2">
-        <v>-0.4825213845596565</v>
+        <v>-0.486532610604123</v>
       </c>
       <c r="F2">
-        <v>0.01126213337503199</v>
+        <v>0.008174429143922524</v>
       </c>
       <c r="G2">
-        <v>0.06100197820894795</v>
+        <v>0.0576651889055354</v>
       </c>
       <c r="H2">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="I2">
-        <v>-0.2492014171922085</v>
+        <v>-0.2548691806886232</v>
       </c>
       <c r="J2">
-        <v>-0.4910096433553712</v>
+        <v>-0.500290166111514</v>
       </c>
       <c r="K2">
-        <v>-0.007393191029045787</v>
+        <v>-0.009448195265732456</v>
       </c>
       <c r="L2">
-        <v>0.04304068194348425</v>
+        <v>0.04146342880837804</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>😢</t>
+          <t>😿</t>
         </is>
       </c>
     </row>
@@ -489,39 +489,34 @@
         </is>
       </c>
       <c r="C3">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D3">
-        <v>-0.09480990390295679</v>
+        <v>-0.09023791723450743</v>
       </c>
       <c r="E3">
-        <v>-0.2166793035102159</v>
+        <v>-0.2113307955388687</v>
       </c>
       <c r="F3">
-        <v>0.02705949570430227</v>
+        <v>0.03085496106985385</v>
       </c>
       <c r="G3">
-        <v>0.1273898316332464</v>
+        <v>0.144468495140516</v>
       </c>
       <c r="H3">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="I3">
-        <v>-0.1068890702949439</v>
+        <v>-0.104377072418644</v>
       </c>
       <c r="J3">
-        <v>-0.211101887138282</v>
+        <v>-0.2102513852993722</v>
       </c>
       <c r="K3">
-        <v>-0.002676253451605701</v>
+        <v>0.001497240462084187</v>
       </c>
       <c r="L3">
-        <v>0.04404031202846564</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>😢</t>
-        </is>
+        <v>0.05293599022123988</v>
       </c>
     </row>
     <row r="4">
@@ -536,38 +531,38 @@
         </is>
       </c>
       <c r="C4">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D4">
-        <v>-0.2293719545685455</v>
+        <v>-0.2242096456795053</v>
       </c>
       <c r="E4">
-        <v>-0.3814910831712271</v>
+        <v>-0.3779152623815922</v>
       </c>
       <c r="F4">
-        <v>-0.0772528259658638</v>
+        <v>-0.07050402897741834</v>
       </c>
       <c r="G4">
-        <v>0.003175000514124303</v>
+        <v>0.004294718085983532</v>
       </c>
       <c r="H4">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="I4">
-        <v>-0.2265525264837798</v>
+        <v>-0.2210703990708477</v>
       </c>
       <c r="J4">
-        <v>-0.3587724974972199</v>
+        <v>-0.3573798771954091</v>
       </c>
       <c r="K4">
-        <v>-0.09433255547033975</v>
+        <v>-0.0847609209462864</v>
       </c>
       <c r="L4">
-        <v>0.0008252266263123881</v>
+        <v>0.001529644554904479</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>😆</t>
+          <t>😃</t>
         </is>
       </c>
     </row>
@@ -583,34 +578,34 @@
         </is>
       </c>
       <c r="C5">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D5">
-        <v>-0.09793733057086614</v>
+        <v>-0.0955058713787829</v>
       </c>
       <c r="E5">
-        <v>-0.2169648534095704</v>
+        <v>-0.2166020805775821</v>
       </c>
       <c r="F5">
-        <v>0.02109019226783809</v>
+        <v>0.02559033782001627</v>
       </c>
       <c r="G5">
-        <v>0.1066433843519108</v>
+        <v>0.1221646008088136</v>
       </c>
       <c r="H5">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="I5">
-        <v>-0.09851093412896531</v>
+        <v>-0.09767476280840361</v>
       </c>
       <c r="J5">
-        <v>-0.1977491240609045</v>
+        <v>-0.2011281073004995</v>
       </c>
       <c r="K5">
-        <v>0.0007272558029738918</v>
+        <v>0.00577858168369233</v>
       </c>
       <c r="L5">
-        <v>0.05131410425129541</v>
+        <v>0.06383941611416842</v>
       </c>
     </row>
   </sheetData>
@@ -705,38 +700,38 @@
         </is>
       </c>
       <c r="C2">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D2">
-        <v>-0.129900271126638</v>
+        <v>-0.1239491762126626</v>
       </c>
       <c r="E2">
-        <v>-0.2616897216738813</v>
+        <v>-0.2539559433860984</v>
       </c>
       <c r="F2">
-        <v>0.001889179420605402</v>
+        <v>0.006057590960773337</v>
       </c>
       <c r="G2">
-        <v>0.0529825947014903</v>
+        <v>0.06126849978442981</v>
       </c>
       <c r="H2">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="I2">
-        <v>-0.158010108445409</v>
+        <v>-0.1526431706828834</v>
       </c>
       <c r="J2">
-        <v>-0.3043217458095618</v>
+        <v>-0.2970098732917305</v>
       </c>
       <c r="K2">
-        <v>-0.01169847108125618</v>
+        <v>-0.008276468074036397</v>
       </c>
       <c r="L2">
-        <v>0.03399433043896536</v>
+        <v>0.03791223338891729</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>😞</t>
+          <t>🙍</t>
         </is>
       </c>
     </row>
@@ -752,39 +747,34 @@
         </is>
       </c>
       <c r="C3">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D3">
-        <v>-0.1085111222380223</v>
+        <v>-0.1099245844481229</v>
       </c>
       <c r="E3">
-        <v>-0.2632131227848855</v>
+        <v>-0.2608672344001467</v>
       </c>
       <c r="F3">
-        <v>0.04619087830884083</v>
+        <v>0.04101806550390083</v>
       </c>
       <c r="G3">
-        <v>0.169997318429636</v>
+        <v>0.1539709504406524</v>
       </c>
       <c r="H3">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="I3">
-        <v>-0.1692165142343094</v>
+        <v>-0.1524195155246671</v>
       </c>
       <c r="J3">
-        <v>-0.3324093247278936</v>
+        <v>-0.3109226669200839</v>
       </c>
       <c r="K3">
-        <v>-0.006023703740725056</v>
+        <v>0.006083635870749754</v>
       </c>
       <c r="L3">
-        <v>0.04177518699952803</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>😞</t>
-        </is>
+        <v>0.05906216001909483</v>
       </c>
     </row>
     <row r="4">
@@ -799,34 +789,34 @@
         </is>
       </c>
       <c r="C4">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D4">
-        <v>-0.1147234677942737</v>
+        <v>-0.1210410615913352</v>
       </c>
       <c r="E4">
-        <v>-0.2442590790263814</v>
+        <v>-0.2563648424560293</v>
       </c>
       <c r="F4">
-        <v>0.01481214343783405</v>
+        <v>0.01428271927335886</v>
       </c>
       <c r="G4">
-        <v>0.08223736576027294</v>
+        <v>0.07921731335954874</v>
       </c>
       <c r="H4">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="I4">
-        <v>-0.1216529922626028</v>
+        <v>-0.1231941528209093</v>
       </c>
       <c r="J4">
-        <v>-0.2515891918667805</v>
+        <v>-0.2562822599711763</v>
       </c>
       <c r="K4">
-        <v>0.008283207341574908</v>
+        <v>0.00989395432935769</v>
       </c>
       <c r="L4">
-        <v>0.06610040432457444</v>
+        <v>0.06924020760009153</v>
       </c>
     </row>
     <row r="5">
@@ -841,34 +831,34 @@
         </is>
       </c>
       <c r="C5">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D5">
-        <v>-0.07692846825495986</v>
+        <v>-0.1002001692957166</v>
       </c>
       <c r="E5">
-        <v>-0.2221756880345691</v>
+        <v>-0.2527235681021238</v>
       </c>
       <c r="F5">
-        <v>0.06831875152464939</v>
+        <v>0.0523232295106906</v>
       </c>
       <c r="G5">
-        <v>0.3034294424337329</v>
+        <v>0.1993010298487521</v>
       </c>
       <c r="H5">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="I5">
-        <v>-0.1126526793564607</v>
+        <v>-0.1243576920221095</v>
       </c>
       <c r="J5">
-        <v>-0.2681762419793395</v>
+        <v>-0.2759742661606595</v>
       </c>
       <c r="K5">
-        <v>0.04287088326641818</v>
+        <v>0.02725888211644061</v>
       </c>
       <c r="L5">
-        <v>0.1562304990362521</v>
+        <v>0.1077672863584069</v>
       </c>
     </row>
   </sheetData>
@@ -963,34 +953,34 @@
         </is>
       </c>
       <c r="C2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D2">
-        <v>0.02250758005157639</v>
+        <v>-0.01397996882857916</v>
       </c>
       <c r="E2">
-        <v>-0.2221883987874627</v>
+        <v>-0.2560917566973345</v>
       </c>
       <c r="F2">
-        <v>0.2672035588906155</v>
+        <v>0.2281318190401762</v>
       </c>
       <c r="G2">
-        <v>0.8669405261603047</v>
+        <v>0.9171594272321748</v>
       </c>
       <c r="H2">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="I2">
-        <v>-0.01102283166681119</v>
+        <v>0.02293209984064737</v>
       </c>
       <c r="J2">
-        <v>-0.2513022261424361</v>
+        <v>-0.2117403436691739</v>
       </c>
       <c r="K2">
-        <v>0.2292565628088138</v>
+        <v>0.2576045433504686</v>
       </c>
       <c r="L2">
-        <v>0.9344170813636233</v>
+        <v>0.8584834906461069</v>
       </c>
     </row>
     <row r="3">
@@ -1005,34 +995,34 @@
         </is>
       </c>
       <c r="C3">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D3">
-        <v>0.01763837637330902</v>
+        <v>0.01509828594288223</v>
       </c>
       <c r="E3">
-        <v>-0.08149923631951571</v>
+        <v>-0.07475860757378681</v>
       </c>
       <c r="F3">
-        <v>0.1167759890661338</v>
+        <v>0.1049551794595513</v>
       </c>
       <c r="G3">
-        <v>0.7403592989749861</v>
+        <v>0.75484034904674</v>
       </c>
       <c r="H3">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="I3">
-        <v>0.04771520643905493</v>
+        <v>0.05111578930751094</v>
       </c>
       <c r="J3">
-        <v>-0.05470848255722886</v>
+        <v>-0.04907850146260023</v>
       </c>
       <c r="K3">
-        <v>0.1501388954353387</v>
+        <v>0.1513100800776221</v>
       </c>
       <c r="L3">
-        <v>0.3673224816895307</v>
+        <v>0.322102175522876</v>
       </c>
     </row>
     <row r="4">
@@ -1047,34 +1037,34 @@
         </is>
       </c>
       <c r="C4">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D4">
-        <v>0.01442080680097253</v>
+        <v>0.02371635812929996</v>
       </c>
       <c r="E4">
-        <v>-0.04633752681801211</v>
+        <v>-0.07920489150479271</v>
       </c>
       <c r="F4">
-        <v>0.07517914041995717</v>
+        <v>0.1266376077633926</v>
       </c>
       <c r="G4">
-        <v>0.6547017602114472</v>
+        <v>0.6645211718450769</v>
       </c>
       <c r="H4">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="I4">
-        <v>0.002829282215095561</v>
+        <v>0.03258538289516104</v>
       </c>
       <c r="J4">
-        <v>-0.1013581170211482</v>
+        <v>-0.06653548455161799</v>
       </c>
       <c r="K4">
-        <v>0.1070166814513393</v>
+        <v>0.1317062503419401</v>
       </c>
       <c r="L4">
-        <v>0.9614228569483824</v>
+        <v>0.5300935459460038</v>
       </c>
     </row>
     <row r="5">
@@ -1089,38 +1079,38 @@
         </is>
       </c>
       <c r="C5">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D5">
-        <v>-0.005849143241423181</v>
+        <v>-0.02622879334955065</v>
       </c>
       <c r="E5">
-        <v>-0.1056593086030046</v>
+        <v>-0.04320946387770443</v>
       </c>
       <c r="F5">
-        <v>0.09396102212015822</v>
+        <v>-0.009248122821396872</v>
       </c>
       <c r="G5">
-        <v>0.9159038822171716</v>
+        <v>0.002519818931506288</v>
       </c>
       <c r="H5">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="I5">
-        <v>-0.005191537368906622</v>
+        <v>0.03136851596923556</v>
       </c>
       <c r="J5">
-        <v>-0.009583328443184169</v>
+        <v>-0.0623117931259679</v>
       </c>
       <c r="K5">
-        <v>-0.0007997462946290751</v>
+        <v>0.125048825064439</v>
       </c>
       <c r="L5">
-        <v>0.02035640623426322</v>
+        <v>0.5221766373228974</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>😭</t>
+          <t>❗</t>
         </is>
       </c>
     </row>
@@ -1136,34 +1126,34 @@
         </is>
       </c>
       <c r="C6">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D6">
-        <v>0.009811947393591605</v>
+        <v>0.02473380980317601</v>
       </c>
       <c r="E6">
-        <v>-0.1013716345380473</v>
+        <v>-0.08405516655468542</v>
       </c>
       <c r="F6">
-        <v>0.1209955293252305</v>
+        <v>0.1335227861610374</v>
       </c>
       <c r="G6">
-        <v>0.8724363490361081</v>
+        <v>0.6689038944194076</v>
       </c>
       <c r="H6">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="I6">
-        <v>-0.03922149861772829</v>
+        <v>-0.01646448555435326</v>
       </c>
       <c r="J6">
-        <v>-0.1529075391676311</v>
+        <v>-0.1207509238275651</v>
       </c>
       <c r="K6">
-        <v>0.07446454193217449</v>
+        <v>0.08782195271885854</v>
       </c>
       <c r="L6">
-        <v>0.5091330867188229</v>
+        <v>0.7697405722924213</v>
       </c>
     </row>
     <row r="7">
@@ -1178,34 +1168,34 @@
         </is>
       </c>
       <c r="C7">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D7">
-        <v>-0.005554960130315086</v>
+        <v>-0.0003470726836452388</v>
       </c>
       <c r="E7">
-        <v>-0.104428519637936</v>
+        <v>-0.00192452459590037</v>
       </c>
       <c r="F7">
-        <v>0.09331859937730579</v>
+        <v>0.001230379228609892</v>
       </c>
       <c r="G7">
-        <v>0.9194324417645297</v>
+        <v>0.6793878054859639</v>
       </c>
       <c r="H7">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="I7">
-        <v>0.03999557958923137</v>
+        <v>0.04052374968672508</v>
       </c>
       <c r="J7">
-        <v>-0.06210678433422206</v>
+        <v>-0.05984018659294187</v>
       </c>
       <c r="K7">
-        <v>0.1420979435126848</v>
+        <v>0.140887685966392</v>
       </c>
       <c r="L7">
-        <v>0.4512590830109683</v>
+        <v>0.4369396191718715</v>
       </c>
     </row>
     <row r="8">
@@ -1220,34 +1210,34 @@
         </is>
       </c>
       <c r="C8">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D8">
-        <v>-0.0006367524985869553</v>
+        <v>0.01431779229746973</v>
       </c>
       <c r="E8">
-        <v>-0.2006930475889394</v>
+        <v>-0.08875631165886541</v>
       </c>
       <c r="F8">
-        <v>0.1994195425917654</v>
+        <v>0.1173918962538049</v>
       </c>
       <c r="G8">
-        <v>0.9955209251955903</v>
+        <v>0.7976815074341568</v>
       </c>
       <c r="H8">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="I8">
-        <v>0.02695701728462004</v>
+        <v>0.03102328477377751</v>
       </c>
       <c r="J8">
-        <v>-0.1013473885285381</v>
+        <v>-0.07859698962015441</v>
       </c>
       <c r="K8">
-        <v>0.1552614230977782</v>
+        <v>0.1406435591677094</v>
       </c>
       <c r="L8">
-        <v>0.6936376588389451</v>
+        <v>0.5911343373117218</v>
       </c>
     </row>
     <row r="9">
@@ -1262,34 +1252,34 @@
         </is>
       </c>
       <c r="C9">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D9">
-        <v>0.04925482640231201</v>
+        <v>3.944107985864379E-05</v>
       </c>
       <c r="E9">
-        <v>-0.01800178869408853</v>
+        <v>-0.00252846692749525</v>
       </c>
       <c r="F9">
-        <v>0.1165114414987126</v>
+        <v>0.002607349087212538</v>
       </c>
       <c r="G9">
-        <v>0.1516352136397756</v>
+        <v>0.978277770711024</v>
       </c>
       <c r="H9">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="I9">
-        <v>-0.01897761587354637</v>
+        <v>0.02282532149968924</v>
       </c>
       <c r="J9">
-        <v>-0.178238106756754</v>
+        <v>-0.07840758127707995</v>
       </c>
       <c r="K9">
-        <v>0.1402828750096613</v>
+        <v>0.1240582242764584</v>
       </c>
       <c r="L9">
-        <v>0.8268341698400649</v>
+        <v>0.6715901192371585</v>
       </c>
     </row>
   </sheetData>
@@ -1384,34 +1374,34 @@
         </is>
       </c>
       <c r="C2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D2">
-        <v>0.04386574516834379</v>
+        <v>0.05048168468515521</v>
       </c>
       <c r="E2">
-        <v>-0.1797664450513179</v>
+        <v>-0.1660247031280355</v>
       </c>
       <c r="F2">
-        <v>0.2674979353880055</v>
+        <v>0.2669880724983459</v>
       </c>
       <c r="G2">
-        <v>0.7138067637508347</v>
+        <v>0.6606350932781087</v>
       </c>
       <c r="H2">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="I2">
-        <v>0.04218101216777175</v>
+        <v>0.06271312148875431</v>
       </c>
       <c r="J2">
-        <v>-0.1746121632421234</v>
+        <v>-0.1475647643622912</v>
       </c>
       <c r="K2">
-        <v>0.2589741875776669</v>
+        <v>0.2729910073397998</v>
       </c>
       <c r="L2">
-        <v>0.7161044130952895</v>
+        <v>0.5704853718506349</v>
       </c>
     </row>
     <row r="3">
@@ -1426,34 +1416,34 @@
         </is>
       </c>
       <c r="C3">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D3">
-        <v>0.08941021883648172</v>
+        <v>0.0557797421627392</v>
       </c>
       <c r="E3">
-        <v>-0.1272386599517873</v>
+        <v>-0.1599715184867206</v>
       </c>
       <c r="F3">
-        <v>0.3060590976247508</v>
+        <v>0.271531002812199</v>
       </c>
       <c r="G3">
-        <v>0.4264938869398918</v>
+        <v>0.6249101459244454</v>
       </c>
       <c r="H3">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="I3">
-        <v>0.1148145462920035</v>
+        <v>0.08891250523321062</v>
       </c>
       <c r="J3">
-        <v>-0.1040926146930901</v>
+        <v>-0.1278482132737989</v>
       </c>
       <c r="K3">
-        <v>0.3337217072770971</v>
+        <v>0.3056732237402202</v>
       </c>
       <c r="L3">
-        <v>0.3082951180079978</v>
+        <v>0.4294149350653592</v>
       </c>
     </row>
     <row r="4">
@@ -1468,34 +1458,34 @@
         </is>
       </c>
       <c r="C4">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D4">
-        <v>0.03306889867016849</v>
+        <v>0.02188586836136201</v>
       </c>
       <c r="E4">
-        <v>-0.1641418751733286</v>
+        <v>-0.1715842840468066</v>
       </c>
       <c r="F4">
-        <v>0.2302796725136656</v>
+        <v>0.2153560207695306</v>
       </c>
       <c r="G4">
-        <v>0.7553431019580851</v>
+        <v>0.8357513281649549</v>
       </c>
       <c r="H4">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="I4">
-        <v>0.02736113545986242</v>
+        <v>0.01118475244654334</v>
       </c>
       <c r="J4">
-        <v>-0.1566406491860699</v>
+        <v>-0.1738228722988545</v>
       </c>
       <c r="K4">
-        <v>0.2113629201057947</v>
+        <v>0.1961923771919412</v>
       </c>
       <c r="L4">
-        <v>0.7832458748283684</v>
+        <v>0.913199972243764</v>
       </c>
     </row>
     <row r="5">
@@ -1510,34 +1500,34 @@
         </is>
       </c>
       <c r="C5">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D5">
-        <v>-0.03552393476501735</v>
+        <v>-0.05672616227910786</v>
       </c>
       <c r="E5">
-        <v>-0.2396376854856455</v>
+        <v>-0.2579659258080223</v>
       </c>
       <c r="F5">
-        <v>0.1685898159556107</v>
+        <v>0.1445136012498066</v>
       </c>
       <c r="G5">
-        <v>0.7460309656224996</v>
+        <v>0.5926690022154442</v>
       </c>
       <c r="H5">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="I5">
-        <v>0.006213957216065397</v>
+        <v>-0.01958242318731988</v>
       </c>
       <c r="J5">
-        <v>-0.1937924168116799</v>
+        <v>-0.2162403512536615</v>
       </c>
       <c r="K5">
-        <v>0.2062203312438108</v>
+        <v>0.1770755048790217</v>
       </c>
       <c r="L5">
-        <v>0.955802283452271</v>
+        <v>0.8557456496943602</v>
       </c>
     </row>
   </sheetData>
@@ -1632,34 +1622,34 @@
         </is>
       </c>
       <c r="C2">
-        <v>824</v>
+        <v>1249</v>
       </c>
       <c r="D2">
-        <v>-0.1198008494784248</v>
+        <v>-0.06144518000188978</v>
       </c>
       <c r="E2">
-        <v>-0.3315300173323338</v>
+        <v>-0.2004550619514701</v>
       </c>
       <c r="F2">
-        <v>0.09192831837548436</v>
+        <v>0.07756470194769052</v>
       </c>
       <c r="G2">
-        <v>0.2706851010061938</v>
+        <v>0.3932063456508917</v>
       </c>
       <c r="H2">
-        <v>827</v>
+        <v>1299</v>
       </c>
       <c r="I2">
-        <v>-0.07930042835255077</v>
+        <v>-0.05569133159011858</v>
       </c>
       <c r="J2">
-        <v>-0.269363763912944</v>
+        <v>-0.1835944365336845</v>
       </c>
       <c r="K2">
-        <v>0.1107629072078425</v>
+        <v>0.07221177335344736</v>
       </c>
       <c r="L2">
-        <v>0.4212429026766025</v>
+        <v>0.4005626947004007</v>
       </c>
     </row>
     <row r="3">
@@ -1674,38 +1664,38 @@
         </is>
       </c>
       <c r="C3">
-        <v>816</v>
+        <v>1234</v>
       </c>
       <c r="D3">
-        <v>-0.09693260527575562</v>
+        <v>-0.1500361346591379</v>
       </c>
       <c r="E3">
-        <v>-0.1763556316935841</v>
+        <v>-0.2782158089477195</v>
       </c>
       <c r="F3">
-        <v>-0.01750957885792717</v>
+        <v>-0.0218564603705563</v>
       </c>
       <c r="G3">
-        <v>0.01664659089369448</v>
+        <v>0.02161176773021982</v>
       </c>
       <c r="H3">
-        <v>819</v>
+        <v>1284</v>
       </c>
       <c r="I3">
-        <v>-0.09596496776926965</v>
+        <v>-0.1355836654249566</v>
       </c>
       <c r="J3">
-        <v>-0.1771647912467247</v>
+        <v>-0.2585063083562009</v>
       </c>
       <c r="K3">
-        <v>-0.01476514429181459</v>
+        <v>-0.01266102249371237</v>
       </c>
       <c r="L3">
-        <v>0.0203841861461723</v>
+        <v>0.03036886947462726</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>😀</t>
+          <t>🙋</t>
         </is>
       </c>
     </row>
@@ -1721,34 +1711,39 @@
         </is>
       </c>
       <c r="C4">
-        <v>821</v>
+        <v>1244</v>
       </c>
       <c r="D4">
-        <v>-0.1665705721460143</v>
+        <v>-0.1650620223402173</v>
       </c>
       <c r="E4">
-        <v>-0.3477651476430678</v>
+        <v>-0.3265399620960306</v>
       </c>
       <c r="F4">
-        <v>0.01462400335103911</v>
+        <v>-0.003584082584404014</v>
       </c>
       <c r="G4">
-        <v>0.07118655609755586</v>
+        <v>0.04476421875825587</v>
       </c>
       <c r="H4">
-        <v>824</v>
+        <v>1294</v>
       </c>
       <c r="I4">
-        <v>-0.1512800312599694</v>
+        <v>-0.1395495096864771</v>
       </c>
       <c r="J4">
-        <v>-0.3300129883012969</v>
+        <v>-0.2756569840476799</v>
       </c>
       <c r="K4">
-        <v>0.02745292578135805</v>
+        <v>-0.00344203532527429</v>
       </c>
       <c r="L4">
-        <v>0.09687391937834464</v>
+        <v>0.0441211409041741</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>🙋</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1763,34 +1758,34 @@
         </is>
       </c>
       <c r="C5">
-        <v>823</v>
+        <v>1249</v>
       </c>
       <c r="D5">
-        <v>-0.04960481623253744</v>
+        <v>-0.06356213433364807</v>
       </c>
       <c r="E5">
-        <v>-0.220179028334573</v>
+        <v>-0.1853332496918338</v>
       </c>
       <c r="F5">
-        <v>0.1209693958694981</v>
+        <v>0.0582089810245377</v>
       </c>
       <c r="G5">
-        <v>0.5805174588263214</v>
+        <v>0.3106852391570092</v>
       </c>
       <c r="H5">
-        <v>826</v>
+        <v>1299</v>
       </c>
       <c r="I5">
-        <v>-0.04343191853689846</v>
+        <v>-0.06894425738707066</v>
       </c>
       <c r="J5">
-        <v>-0.2116694392608396</v>
+        <v>-0.1872257490776013</v>
       </c>
       <c r="K5">
-        <v>0.1248056021870427</v>
+        <v>0.04933723430345999</v>
       </c>
       <c r="L5">
-        <v>0.6254386826765301</v>
+        <v>0.2561230493371434</v>
       </c>
     </row>
     <row r="6">
@@ -1805,34 +1800,34 @@
         </is>
       </c>
       <c r="C6">
-        <v>824</v>
+        <v>1249</v>
       </c>
       <c r="D6">
-        <v>0.03749033801555336</v>
+        <v>0.01382881880926545</v>
       </c>
       <c r="E6">
-        <v>-0.06120558511617586</v>
+        <v>-0.06190450768342724</v>
       </c>
       <c r="F6">
-        <v>0.1361862611472826</v>
+        <v>0.08956214530195813</v>
       </c>
       <c r="G6">
-        <v>0.4656069488597318</v>
+        <v>0.7335244057656666</v>
       </c>
       <c r="H6">
-        <v>827</v>
+        <v>1299</v>
       </c>
       <c r="I6">
-        <v>0.02040132683630352</v>
+        <v>0.01080596000096313</v>
       </c>
       <c r="J6">
-        <v>-0.07797611064886345</v>
+        <v>-0.06150247127375635</v>
       </c>
       <c r="K6">
-        <v>0.1187787643214705</v>
+        <v>0.08311439127568263</v>
       </c>
       <c r="L6">
-        <v>0.6975645534260098</v>
+        <v>0.7821526814287262</v>
       </c>
     </row>
     <row r="7">
@@ -1847,38 +1842,38 @@
         </is>
       </c>
       <c r="C7">
-        <v>816</v>
+        <v>1234</v>
       </c>
       <c r="D7">
-        <v>-0.103552827419066</v>
+        <v>-0.2067238728964827</v>
       </c>
       <c r="E7">
-        <v>-0.1956186629532321</v>
+        <v>-0.352049082555779</v>
       </c>
       <c r="F7">
-        <v>-0.01148699188489996</v>
+        <v>-0.0613986632371864</v>
       </c>
       <c r="G7">
-        <v>0.02725730142949004</v>
+        <v>0.005338590176183496</v>
       </c>
       <c r="H7">
-        <v>819</v>
+        <v>1284</v>
       </c>
       <c r="I7">
-        <v>-0.1093935725154336</v>
+        <v>-0.2161478413092623</v>
       </c>
       <c r="J7">
-        <v>-0.2019077152527756</v>
+        <v>-0.3599743018620112</v>
       </c>
       <c r="K7">
-        <v>-0.01687942977809162</v>
+        <v>-0.07232138075651345</v>
       </c>
       <c r="L7">
-        <v>0.02031927596629557</v>
+        <v>0.003275372132015163</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>😀</t>
+          <t>🙋</t>
         </is>
       </c>
     </row>
@@ -1894,34 +1889,34 @@
         </is>
       </c>
       <c r="C8">
-        <v>821</v>
+        <v>1244</v>
       </c>
       <c r="D8">
-        <v>0.01104760408784153</v>
+        <v>-0.07855662610917356</v>
       </c>
       <c r="E8">
-        <v>-0.08322582315413009</v>
+        <v>-0.2169277872365009</v>
       </c>
       <c r="F8">
-        <v>0.1053210313298131</v>
+        <v>0.05981453501815372</v>
       </c>
       <c r="G8">
-        <v>0.8297495377020322</v>
+        <v>0.2690333036248042</v>
       </c>
       <c r="H8">
-        <v>824</v>
+        <v>1294</v>
       </c>
       <c r="I8">
-        <v>-0.003750564498600551</v>
+        <v>-0.04736413404596227</v>
       </c>
       <c r="J8">
-        <v>-0.09757562313305658</v>
+        <v>-0.1770948079028729</v>
       </c>
       <c r="K8">
-        <v>0.09007449413585549</v>
+        <v>0.08236653981094832</v>
       </c>
       <c r="L8">
-        <v>0.9429613966962849</v>
+        <v>0.4837940299056335</v>
       </c>
     </row>
     <row r="9">
@@ -1936,34 +1931,34 @@
         </is>
       </c>
       <c r="C9">
-        <v>823</v>
+        <v>1249</v>
       </c>
       <c r="D9">
-        <v>0.001336877580511895</v>
+        <v>0.04494305920664272</v>
       </c>
       <c r="E9">
-        <v>-0.0005918484295201637</v>
+        <v>-0.02368321343149436</v>
       </c>
       <c r="F9">
-        <v>0.003265603590543953</v>
+        <v>0.1135693318447798</v>
       </c>
       <c r="G9">
-        <v>0.175190195568936</v>
+        <v>0.2007394723336516</v>
       </c>
       <c r="H9">
-        <v>826</v>
+        <v>1299</v>
       </c>
       <c r="I9">
-        <v>0.03685663345461013</v>
+        <v>0.03230503723235363</v>
       </c>
       <c r="J9">
-        <v>-0.05355466854900809</v>
+        <v>-0.0339074839571491</v>
       </c>
       <c r="K9">
-        <v>0.1272679354582283</v>
+        <v>0.09851755842185636</v>
       </c>
       <c r="L9">
-        <v>0.4323743607541811</v>
+        <v>0.3443569180711052</v>
       </c>
     </row>
   </sheetData>
@@ -2058,34 +2053,34 @@
         </is>
       </c>
       <c r="C2">
-        <v>827</v>
+        <v>1248</v>
       </c>
       <c r="D2">
-        <v>-0.126515381736754</v>
+        <v>-0.04804202920921594</v>
       </c>
       <c r="E2">
-        <v>-0.2740177323570429</v>
+        <v>-0.1322802664285205</v>
       </c>
       <c r="F2">
-        <v>0.02098696888353488</v>
+        <v>0.0361962080100886</v>
       </c>
       <c r="G2">
-        <v>0.09245236438694435</v>
+        <v>0.2667983667107137</v>
       </c>
       <c r="H2">
-        <v>831</v>
+        <v>1301</v>
       </c>
       <c r="I2">
-        <v>-0.05865338500281474</v>
+        <v>-0.04126491289942331</v>
       </c>
       <c r="J2">
-        <v>-0.1627555159004683</v>
+        <v>-0.1214993949024199</v>
       </c>
       <c r="K2">
-        <v>0.0454487458948388</v>
+        <v>0.03896956910357331</v>
       </c>
       <c r="L2">
-        <v>0.2727781672466256</v>
+        <v>0.3180730205474224</v>
       </c>
     </row>
     <row r="3">
@@ -2100,34 +2095,34 @@
         </is>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>1264</v>
       </c>
       <c r="D3">
-        <v>-0.05725138579757068</v>
+        <v>-0.0420821849939025</v>
       </c>
       <c r="E3">
-        <v>-0.2246346007086388</v>
+        <v>-0.1279635310719472</v>
       </c>
       <c r="F3">
-        <v>0.1101318291134974</v>
+        <v>0.04379916108414218</v>
       </c>
       <c r="G3">
-        <v>0.5129203575203077</v>
+        <v>0.3422125602287824</v>
       </c>
       <c r="H3">
-        <v>839</v>
+        <v>1317</v>
       </c>
       <c r="I3">
-        <v>-0.03410436066586309</v>
+        <v>-0.03597859291939312</v>
       </c>
       <c r="J3">
-        <v>-0.1891199666245636</v>
+        <v>-0.1208426241532302</v>
       </c>
       <c r="K3">
-        <v>0.1209112452928374</v>
+        <v>0.04888543831444399</v>
       </c>
       <c r="L3">
-        <v>0.6794094427001745</v>
+        <v>0.4135261494233287</v>
       </c>
     </row>
     <row r="4">
@@ -2142,34 +2137,34 @@
         </is>
       </c>
       <c r="C4">
-        <v>827</v>
+        <v>1248</v>
       </c>
       <c r="D4">
-        <v>-0.002750756337978841</v>
+        <v>0.02008595642654655</v>
       </c>
       <c r="E4">
-        <v>-0.08924630654235755</v>
+        <v>-0.06173822528252829</v>
       </c>
       <c r="F4">
-        <v>0.08374479386639985</v>
+        <v>0.1019101381356214</v>
       </c>
       <c r="G4">
-        <v>0.9547471946517784</v>
+        <v>0.6432164651943418</v>
       </c>
       <c r="H4">
-        <v>831</v>
+        <v>1301</v>
       </c>
       <c r="I4">
-        <v>-0.008675993832657235</v>
+        <v>0.03122485664721156</v>
       </c>
       <c r="J4">
-        <v>-0.0937301682474074</v>
+        <v>-0.0544282975893706</v>
       </c>
       <c r="K4">
-        <v>0.07637818058209292</v>
+        <v>0.1168780108837937</v>
       </c>
       <c r="L4">
-        <v>0.8521618051635476</v>
+        <v>0.4844735950161931</v>
       </c>
     </row>
     <row r="5">
@@ -2184,34 +2179,34 @@
         </is>
       </c>
       <c r="C5">
-        <v>835</v>
+        <v>1264</v>
       </c>
       <c r="D5">
-        <v>-0.01465034589888329</v>
+        <v>-0.006001704575120268</v>
       </c>
       <c r="E5">
-        <v>-0.1132168548388349</v>
+        <v>-0.08790788117959863</v>
       </c>
       <c r="F5">
-        <v>0.08391616304106833</v>
+        <v>0.0759044720293581</v>
       </c>
       <c r="G5">
-        <v>0.7833434819970365</v>
+        <v>0.8944412988449174</v>
       </c>
       <c r="H5">
-        <v>839</v>
+        <v>1317</v>
       </c>
       <c r="I5">
-        <v>0.0003561823213224311</v>
+        <v>0.004630550356090871</v>
       </c>
       <c r="J5">
-        <v>-0.001143405254995666</v>
+        <v>-0.07017765499446699</v>
       </c>
       <c r="K5">
-        <v>0.001855769897640528</v>
+        <v>0.07943875570664874</v>
       </c>
       <c r="L5">
-        <v>0.6544563830598484</v>
+        <v>0.9110923968066896</v>
       </c>
     </row>
   </sheetData>
@@ -2306,38 +2301,38 @@
         </is>
       </c>
       <c r="C2">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D2">
-        <v>-0.2356296255923123</v>
+        <v>-0.2391790907301002</v>
       </c>
       <c r="E2">
-        <v>-0.4825213845596565</v>
+        <v>-0.486532610604123</v>
       </c>
       <c r="F2">
-        <v>0.01126213337503199</v>
+        <v>0.008174429143922524</v>
       </c>
       <c r="G2">
-        <v>0.06100197820894795</v>
+        <v>0.0576651889055354</v>
       </c>
       <c r="H2">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="I2">
-        <v>-0.2492014171922085</v>
+        <v>-0.2548691806886232</v>
       </c>
       <c r="J2">
-        <v>-0.4910096433553712</v>
+        <v>-0.500290166111514</v>
       </c>
       <c r="K2">
-        <v>-0.007393191029045787</v>
+        <v>-0.009448195265732456</v>
       </c>
       <c r="L2">
-        <v>0.04304068194348425</v>
+        <v>0.04146342880837804</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>😢</t>
+          <t>😿</t>
         </is>
       </c>
     </row>
@@ -2353,39 +2348,34 @@
         </is>
       </c>
       <c r="C3">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D3">
-        <v>-0.09480990390295679</v>
+        <v>-0.09023791723450743</v>
       </c>
       <c r="E3">
-        <v>-0.2166793035102159</v>
+        <v>-0.2113307955388687</v>
       </c>
       <c r="F3">
-        <v>0.02705949570430227</v>
+        <v>0.03085496106985385</v>
       </c>
       <c r="G3">
-        <v>0.1273898316332464</v>
+        <v>0.144468495140516</v>
       </c>
       <c r="H3">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="I3">
-        <v>-0.1068890702949439</v>
+        <v>-0.104377072418644</v>
       </c>
       <c r="J3">
-        <v>-0.211101887138282</v>
+        <v>-0.2102513852993722</v>
       </c>
       <c r="K3">
-        <v>-0.002676253451605701</v>
+        <v>0.001497240462084187</v>
       </c>
       <c r="L3">
-        <v>0.04404031202846564</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>😢</t>
-        </is>
+        <v>0.05293599022123988</v>
       </c>
     </row>
     <row r="4">
@@ -2400,38 +2390,38 @@
         </is>
       </c>
       <c r="C4">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D4">
-        <v>-0.2293719545685455</v>
+        <v>-0.2242096456795053</v>
       </c>
       <c r="E4">
-        <v>-0.3814910831712271</v>
+        <v>-0.3779152623815922</v>
       </c>
       <c r="F4">
-        <v>-0.0772528259658638</v>
+        <v>-0.07050402897741834</v>
       </c>
       <c r="G4">
-        <v>0.003175000514124303</v>
+        <v>0.004294718085983532</v>
       </c>
       <c r="H4">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="I4">
-        <v>-0.2265525264837798</v>
+        <v>-0.2210703990708477</v>
       </c>
       <c r="J4">
-        <v>-0.3587724974972199</v>
+        <v>-0.3573798771954091</v>
       </c>
       <c r="K4">
-        <v>-0.09433255547033975</v>
+        <v>-0.0847609209462864</v>
       </c>
       <c r="L4">
-        <v>0.0008252266263123881</v>
+        <v>0.001529644554904479</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>😆</t>
+          <t>😃</t>
         </is>
       </c>
     </row>
@@ -2447,34 +2437,34 @@
         </is>
       </c>
       <c r="C5">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D5">
-        <v>-0.09793733057086614</v>
+        <v>-0.0955058713787829</v>
       </c>
       <c r="E5">
-        <v>-0.2169648534095704</v>
+        <v>-0.2166020805775821</v>
       </c>
       <c r="F5">
-        <v>0.02109019226783809</v>
+        <v>0.02559033782001627</v>
       </c>
       <c r="G5">
-        <v>0.1066433843519108</v>
+        <v>0.1221646008088136</v>
       </c>
       <c r="H5">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="I5">
-        <v>-0.09851093412896531</v>
+        <v>-0.09767476280840361</v>
       </c>
       <c r="J5">
-        <v>-0.1977491240609045</v>
+        <v>-0.2011281073004995</v>
       </c>
       <c r="K5">
-        <v>0.0007272558029738918</v>
+        <v>0.00577858168369233</v>
       </c>
       <c r="L5">
-        <v>0.05131410425129541</v>
+        <v>0.06383941611416842</v>
       </c>
     </row>
     <row r="6">
@@ -2489,38 +2479,38 @@
         </is>
       </c>
       <c r="C6">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D6">
-        <v>-0.129900271126638</v>
+        <v>-0.1239491762126626</v>
       </c>
       <c r="E6">
-        <v>-0.2616897216738813</v>
+        <v>-0.2539559433860984</v>
       </c>
       <c r="F6">
-        <v>0.001889179420605402</v>
+        <v>0.006057590960773337</v>
       </c>
       <c r="G6">
-        <v>0.0529825947014903</v>
+        <v>0.06126849978442981</v>
       </c>
       <c r="H6">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="I6">
-        <v>-0.158010108445409</v>
+        <v>-0.1526431706828834</v>
       </c>
       <c r="J6">
-        <v>-0.3043217458095618</v>
+        <v>-0.2970098732917305</v>
       </c>
       <c r="K6">
-        <v>-0.01169847108125618</v>
+        <v>-0.008276468074036397</v>
       </c>
       <c r="L6">
-        <v>0.03399433043896536</v>
+        <v>0.03791223338891729</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>😞</t>
+          <t>🙍</t>
         </is>
       </c>
     </row>
@@ -2536,39 +2526,34 @@
         </is>
       </c>
       <c r="C7">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D7">
-        <v>-0.1085111222380223</v>
+        <v>-0.1099245844481229</v>
       </c>
       <c r="E7">
-        <v>-0.2632131227848855</v>
+        <v>-0.2608672344001467</v>
       </c>
       <c r="F7">
-        <v>0.04619087830884083</v>
+        <v>0.04101806550390083</v>
       </c>
       <c r="G7">
-        <v>0.169997318429636</v>
+        <v>0.1539709504406524</v>
       </c>
       <c r="H7">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="I7">
-        <v>-0.1692165142343094</v>
+        <v>-0.1524195155246671</v>
       </c>
       <c r="J7">
-        <v>-0.3324093247278936</v>
+        <v>-0.3109226669200839</v>
       </c>
       <c r="K7">
-        <v>-0.006023703740725056</v>
+        <v>0.006083635870749754</v>
       </c>
       <c r="L7">
-        <v>0.04177518699952803</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>😞</t>
-        </is>
+        <v>0.05906216001909483</v>
       </c>
     </row>
     <row r="8">
@@ -2583,34 +2568,34 @@
         </is>
       </c>
       <c r="C8">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D8">
-        <v>-0.1147234677942737</v>
+        <v>-0.1210410615913352</v>
       </c>
       <c r="E8">
-        <v>-0.2442590790263814</v>
+        <v>-0.2563648424560293</v>
       </c>
       <c r="F8">
-        <v>0.01481214343783405</v>
+        <v>0.01428271927335886</v>
       </c>
       <c r="G8">
-        <v>0.08223736576027294</v>
+        <v>0.07921731335954874</v>
       </c>
       <c r="H8">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="I8">
-        <v>-0.1216529922626028</v>
+        <v>-0.1231941528209093</v>
       </c>
       <c r="J8">
-        <v>-0.2515891918667805</v>
+        <v>-0.2562822599711763</v>
       </c>
       <c r="K8">
-        <v>0.008283207341574908</v>
+        <v>0.00989395432935769</v>
       </c>
       <c r="L8">
-        <v>0.06610040432457444</v>
+        <v>0.06924020760009153</v>
       </c>
     </row>
     <row r="9">
@@ -2625,34 +2610,34 @@
         </is>
       </c>
       <c r="C9">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D9">
-        <v>-0.07692846825495986</v>
+        <v>-0.1002001692957166</v>
       </c>
       <c r="E9">
-        <v>-0.2221756880345691</v>
+        <v>-0.2527235681021238</v>
       </c>
       <c r="F9">
-        <v>0.06831875152464939</v>
+        <v>0.0523232295106906</v>
       </c>
       <c r="G9">
-        <v>0.3034294424337329</v>
+        <v>0.1993010298487521</v>
       </c>
       <c r="H9">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="I9">
-        <v>-0.1126526793564607</v>
+        <v>-0.1243576920221095</v>
       </c>
       <c r="J9">
-        <v>-0.2681762419793395</v>
+        <v>-0.2759742661606595</v>
       </c>
       <c r="K9">
-        <v>0.04287088326641818</v>
+        <v>0.02725888211644061</v>
       </c>
       <c r="L9">
-        <v>0.1562304990362521</v>
+        <v>0.1077672863584069</v>
       </c>
     </row>
     <row r="10">
@@ -2667,34 +2652,34 @@
         </is>
       </c>
       <c r="C10">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D10">
-        <v>0.02250758005157639</v>
+        <v>-0.01397996882857916</v>
       </c>
       <c r="E10">
-        <v>-0.2221883987874627</v>
+        <v>-0.2560917566973345</v>
       </c>
       <c r="F10">
-        <v>0.2672035588906155</v>
+        <v>0.2281318190401762</v>
       </c>
       <c r="G10">
-        <v>0.8669405261603047</v>
+        <v>0.9171594272321748</v>
       </c>
       <c r="H10">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="I10">
-        <v>-0.01102283166681119</v>
+        <v>0.02293209984064737</v>
       </c>
       <c r="J10">
-        <v>-0.2513022261424361</v>
+        <v>-0.2117403436691739</v>
       </c>
       <c r="K10">
-        <v>0.2292565628088138</v>
+        <v>0.2576045433504686</v>
       </c>
       <c r="L10">
-        <v>0.9344170813636233</v>
+        <v>0.8584834906461069</v>
       </c>
     </row>
     <row r="11">
@@ -2709,34 +2694,34 @@
         </is>
       </c>
       <c r="C11">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D11">
-        <v>0.01763837637330902</v>
+        <v>0.01509828594288223</v>
       </c>
       <c r="E11">
-        <v>-0.08149923631951571</v>
+        <v>-0.07475860757378681</v>
       </c>
       <c r="F11">
-        <v>0.1167759890661338</v>
+        <v>0.1049551794595513</v>
       </c>
       <c r="G11">
-        <v>0.7403592989749861</v>
+        <v>0.75484034904674</v>
       </c>
       <c r="H11">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="I11">
-        <v>0.04771520643905493</v>
+        <v>0.05111578930751094</v>
       </c>
       <c r="J11">
-        <v>-0.05470848255722886</v>
+        <v>-0.04907850146260023</v>
       </c>
       <c r="K11">
-        <v>0.1501388954353387</v>
+        <v>0.1513100800776221</v>
       </c>
       <c r="L11">
-        <v>0.3673224816895307</v>
+        <v>0.322102175522876</v>
       </c>
     </row>
     <row r="12">
@@ -2751,34 +2736,34 @@
         </is>
       </c>
       <c r="C12">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D12">
-        <v>0.01442080680097253</v>
+        <v>0.02371635812929996</v>
       </c>
       <c r="E12">
-        <v>-0.04633752681801211</v>
+        <v>-0.07920489150479271</v>
       </c>
       <c r="F12">
-        <v>0.07517914041995717</v>
+        <v>0.1266376077633926</v>
       </c>
       <c r="G12">
-        <v>0.6547017602114472</v>
+        <v>0.6645211718450769</v>
       </c>
       <c r="H12">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="I12">
-        <v>0.002829282215095561</v>
+        <v>0.03258538289516104</v>
       </c>
       <c r="J12">
-        <v>-0.1013581170211482</v>
+        <v>-0.06653548455161799</v>
       </c>
       <c r="K12">
-        <v>0.1070166814513393</v>
+        <v>0.1317062503419401</v>
       </c>
       <c r="L12">
-        <v>0.9614228569483824</v>
+        <v>0.5300935459460038</v>
       </c>
     </row>
     <row r="13">
@@ -2793,38 +2778,38 @@
         </is>
       </c>
       <c r="C13">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D13">
-        <v>-0.005849143241423181</v>
+        <v>-0.02622879334955065</v>
       </c>
       <c r="E13">
-        <v>-0.1056593086030046</v>
+        <v>-0.04320946387770443</v>
       </c>
       <c r="F13">
-        <v>0.09396102212015822</v>
+        <v>-0.009248122821396872</v>
       </c>
       <c r="G13">
-        <v>0.9159038822171716</v>
+        <v>0.002519818931506288</v>
       </c>
       <c r="H13">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="I13">
-        <v>-0.005191537368906622</v>
+        <v>0.03136851596923556</v>
       </c>
       <c r="J13">
-        <v>-0.009583328443184169</v>
+        <v>-0.0623117931259679</v>
       </c>
       <c r="K13">
-        <v>-0.0007997462946290751</v>
+        <v>0.125048825064439</v>
       </c>
       <c r="L13">
-        <v>0.02035640623426322</v>
+        <v>0.5221766373228974</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>😭</t>
+          <t>❗</t>
         </is>
       </c>
     </row>
@@ -2840,34 +2825,34 @@
         </is>
       </c>
       <c r="C14">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D14">
-        <v>0.009811947393591605</v>
+        <v>0.02473380980317601</v>
       </c>
       <c r="E14">
-        <v>-0.1013716345380473</v>
+        <v>-0.08405516655468542</v>
       </c>
       <c r="F14">
-        <v>0.1209955293252305</v>
+        <v>0.1335227861610374</v>
       </c>
       <c r="G14">
-        <v>0.8724363490361081</v>
+        <v>0.6689038944194076</v>
       </c>
       <c r="H14">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="I14">
-        <v>-0.03922149861772829</v>
+        <v>-0.01646448555435326</v>
       </c>
       <c r="J14">
-        <v>-0.1529075391676311</v>
+        <v>-0.1207509238275651</v>
       </c>
       <c r="K14">
-        <v>0.07446454193217449</v>
+        <v>0.08782195271885854</v>
       </c>
       <c r="L14">
-        <v>0.5091330867188229</v>
+        <v>0.7697405722924213</v>
       </c>
     </row>
     <row r="15">
@@ -2882,34 +2867,34 @@
         </is>
       </c>
       <c r="C15">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D15">
-        <v>-0.005554960130315086</v>
+        <v>-0.0003470726836452388</v>
       </c>
       <c r="E15">
-        <v>-0.104428519637936</v>
+        <v>-0.00192452459590037</v>
       </c>
       <c r="F15">
-        <v>0.09331859937730579</v>
+        <v>0.001230379228609892</v>
       </c>
       <c r="G15">
-        <v>0.9194324417645297</v>
+        <v>0.6793878054859639</v>
       </c>
       <c r="H15">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="I15">
-        <v>0.03999557958923137</v>
+        <v>0.04052374968672508</v>
       </c>
       <c r="J15">
-        <v>-0.06210678433422206</v>
+        <v>-0.05984018659294187</v>
       </c>
       <c r="K15">
-        <v>0.1420979435126848</v>
+        <v>0.140887685966392</v>
       </c>
       <c r="L15">
-        <v>0.4512590830109683</v>
+        <v>0.4369396191718715</v>
       </c>
     </row>
     <row r="16">
@@ -2924,34 +2909,34 @@
         </is>
       </c>
       <c r="C16">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D16">
-        <v>-0.0006367524985869553</v>
+        <v>0.01431779229746973</v>
       </c>
       <c r="E16">
-        <v>-0.2006930475889394</v>
+        <v>-0.08875631165886541</v>
       </c>
       <c r="F16">
-        <v>0.1994195425917654</v>
+        <v>0.1173918962538049</v>
       </c>
       <c r="G16">
-        <v>0.9955209251955903</v>
+        <v>0.7976815074341568</v>
       </c>
       <c r="H16">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="I16">
-        <v>0.02695701728462004</v>
+        <v>0.03102328477377751</v>
       </c>
       <c r="J16">
-        <v>-0.1013473885285381</v>
+        <v>-0.07859698962015441</v>
       </c>
       <c r="K16">
-        <v>0.1552614230977782</v>
+        <v>0.1406435591677094</v>
       </c>
       <c r="L16">
-        <v>0.6936376588389451</v>
+        <v>0.5911343373117218</v>
       </c>
     </row>
     <row r="17">
@@ -2966,34 +2951,34 @@
         </is>
       </c>
       <c r="C17">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D17">
-        <v>0.04925482640231201</v>
+        <v>3.944107985864379E-05</v>
       </c>
       <c r="E17">
-        <v>-0.01800178869408853</v>
+        <v>-0.00252846692749525</v>
       </c>
       <c r="F17">
-        <v>0.1165114414987126</v>
+        <v>0.002607349087212538</v>
       </c>
       <c r="G17">
-        <v>0.1516352136397756</v>
+        <v>0.978277770711024</v>
       </c>
       <c r="H17">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="I17">
-        <v>-0.01897761587354637</v>
+        <v>0.02282532149968924</v>
       </c>
       <c r="J17">
-        <v>-0.178238106756754</v>
+        <v>-0.07840758127707995</v>
       </c>
       <c r="K17">
-        <v>0.1402828750096613</v>
+        <v>0.1240582242764584</v>
       </c>
       <c r="L17">
-        <v>0.8268341698400649</v>
+        <v>0.6715901192371585</v>
       </c>
     </row>
     <row r="18">
@@ -3008,34 +2993,34 @@
         </is>
       </c>
       <c r="C18">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D18">
-        <v>0.04386574516834379</v>
+        <v>0.05048168468515521</v>
       </c>
       <c r="E18">
-        <v>-0.1797664450513179</v>
+        <v>-0.1660247031280355</v>
       </c>
       <c r="F18">
-        <v>0.2674979353880055</v>
+        <v>0.2669880724983459</v>
       </c>
       <c r="G18">
-        <v>0.7138067637508347</v>
+        <v>0.6606350932781087</v>
       </c>
       <c r="H18">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="I18">
-        <v>0.04218101216777175</v>
+        <v>0.06271312148875431</v>
       </c>
       <c r="J18">
-        <v>-0.1746121632421234</v>
+        <v>-0.1475647643622912</v>
       </c>
       <c r="K18">
-        <v>0.2589741875776669</v>
+        <v>0.2729910073397998</v>
       </c>
       <c r="L18">
-        <v>0.7161044130952895</v>
+        <v>0.5704853718506349</v>
       </c>
     </row>
     <row r="19">
@@ -3050,34 +3035,34 @@
         </is>
       </c>
       <c r="C19">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D19">
-        <v>0.08941021883648172</v>
+        <v>0.0557797421627392</v>
       </c>
       <c r="E19">
-        <v>-0.1272386599517873</v>
+        <v>-0.1599715184867206</v>
       </c>
       <c r="F19">
-        <v>0.3060590976247508</v>
+        <v>0.271531002812199</v>
       </c>
       <c r="G19">
-        <v>0.4264938869398918</v>
+        <v>0.6249101459244454</v>
       </c>
       <c r="H19">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="I19">
-        <v>0.1148145462920035</v>
+        <v>0.08891250523321062</v>
       </c>
       <c r="J19">
-        <v>-0.1040926146930901</v>
+        <v>-0.1278482132737989</v>
       </c>
       <c r="K19">
-        <v>0.3337217072770971</v>
+        <v>0.3056732237402202</v>
       </c>
       <c r="L19">
-        <v>0.3082951180079978</v>
+        <v>0.4294149350653592</v>
       </c>
     </row>
     <row r="20">
@@ -3092,34 +3077,34 @@
         </is>
       </c>
       <c r="C20">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D20">
-        <v>0.03306889867016849</v>
+        <v>0.02188586836136201</v>
       </c>
       <c r="E20">
-        <v>-0.1641418751733286</v>
+        <v>-0.1715842840468066</v>
       </c>
       <c r="F20">
-        <v>0.2302796725136656</v>
+        <v>0.2153560207695306</v>
       </c>
       <c r="G20">
-        <v>0.7553431019580851</v>
+        <v>0.8357513281649549</v>
       </c>
       <c r="H20">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="I20">
-        <v>0.02736113545986242</v>
+        <v>0.01118475244654334</v>
       </c>
       <c r="J20">
-        <v>-0.1566406491860699</v>
+        <v>-0.1738228722988545</v>
       </c>
       <c r="K20">
-        <v>0.2113629201057947</v>
+        <v>0.1961923771919412</v>
       </c>
       <c r="L20">
-        <v>0.7832458748283684</v>
+        <v>0.913199972243764</v>
       </c>
     </row>
     <row r="21">
@@ -3134,34 +3119,34 @@
         </is>
       </c>
       <c r="C21">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D21">
-        <v>-0.03552393476501735</v>
+        <v>-0.05672616227910786</v>
       </c>
       <c r="E21">
-        <v>-0.2396376854856455</v>
+        <v>-0.2579659258080223</v>
       </c>
       <c r="F21">
-        <v>0.1685898159556107</v>
+        <v>0.1445136012498066</v>
       </c>
       <c r="G21">
-        <v>0.7460309656224996</v>
+        <v>0.5926690022154442</v>
       </c>
       <c r="H21">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="I21">
-        <v>0.006213957216065397</v>
+        <v>-0.01958242318731988</v>
       </c>
       <c r="J21">
-        <v>-0.1937924168116799</v>
+        <v>-0.2162403512536615</v>
       </c>
       <c r="K21">
-        <v>0.2062203312438108</v>
+        <v>0.1770755048790217</v>
       </c>
       <c r="L21">
-        <v>0.955802283452271</v>
+        <v>0.8557456496943602</v>
       </c>
     </row>
     <row r="22">
@@ -3176,34 +3161,34 @@
         </is>
       </c>
       <c r="C22">
-        <v>824</v>
+        <v>1249</v>
       </c>
       <c r="D22">
-        <v>-0.1198008494784248</v>
+        <v>-0.06144518000188978</v>
       </c>
       <c r="E22">
-        <v>-0.3315300173323338</v>
+        <v>-0.2004550619514701</v>
       </c>
       <c r="F22">
-        <v>0.09192831837548436</v>
+        <v>0.07756470194769052</v>
       </c>
       <c r="G22">
-        <v>0.2706851010061938</v>
+        <v>0.3932063456508917</v>
       </c>
       <c r="H22">
-        <v>827</v>
+        <v>1299</v>
       </c>
       <c r="I22">
-        <v>-0.07930042835255077</v>
+        <v>-0.05569133159011858</v>
       </c>
       <c r="J22">
-        <v>-0.269363763912944</v>
+        <v>-0.1835944365336845</v>
       </c>
       <c r="K22">
-        <v>0.1107629072078425</v>
+        <v>0.07221177335344736</v>
       </c>
       <c r="L22">
-        <v>0.4212429026766025</v>
+        <v>0.4005626947004007</v>
       </c>
     </row>
     <row r="23">
@@ -3218,38 +3203,38 @@
         </is>
       </c>
       <c r="C23">
-        <v>816</v>
+        <v>1234</v>
       </c>
       <c r="D23">
-        <v>-0.09693260527575562</v>
+        <v>-0.1500361346591379</v>
       </c>
       <c r="E23">
-        <v>-0.1763556316935841</v>
+        <v>-0.2782158089477195</v>
       </c>
       <c r="F23">
-        <v>-0.01750957885792717</v>
+        <v>-0.0218564603705563</v>
       </c>
       <c r="G23">
-        <v>0.01664659089369448</v>
+        <v>0.02161176773021982</v>
       </c>
       <c r="H23">
-        <v>819</v>
+        <v>1284</v>
       </c>
       <c r="I23">
-        <v>-0.09596496776926965</v>
+        <v>-0.1355836654249566</v>
       </c>
       <c r="J23">
-        <v>-0.1771647912467247</v>
+        <v>-0.2585063083562009</v>
       </c>
       <c r="K23">
-        <v>-0.01476514429181459</v>
+        <v>-0.01266102249371237</v>
       </c>
       <c r="L23">
-        <v>0.0203841861461723</v>
+        <v>0.03036886947462726</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>😀</t>
+          <t>🙋</t>
         </is>
       </c>
     </row>
@@ -3265,34 +3250,39 @@
         </is>
       </c>
       <c r="C24">
-        <v>821</v>
+        <v>1244</v>
       </c>
       <c r="D24">
-        <v>-0.1665705721460143</v>
+        <v>-0.1650620223402173</v>
       </c>
       <c r="E24">
-        <v>-0.3477651476430678</v>
+        <v>-0.3265399620960306</v>
       </c>
       <c r="F24">
-        <v>0.01462400335103911</v>
+        <v>-0.003584082584404014</v>
       </c>
       <c r="G24">
-        <v>0.07118655609755586</v>
+        <v>0.04476421875825587</v>
       </c>
       <c r="H24">
-        <v>824</v>
+        <v>1294</v>
       </c>
       <c r="I24">
-        <v>-0.1512800312599694</v>
+        <v>-0.1395495096864771</v>
       </c>
       <c r="J24">
-        <v>-0.3300129883012969</v>
+        <v>-0.2756569840476799</v>
       </c>
       <c r="K24">
-        <v>0.02745292578135805</v>
+        <v>-0.00344203532527429</v>
       </c>
       <c r="L24">
-        <v>0.09687391937834464</v>
+        <v>0.0441211409041741</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>🙋</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3307,34 +3297,34 @@
         </is>
       </c>
       <c r="C25">
-        <v>823</v>
+        <v>1249</v>
       </c>
       <c r="D25">
-        <v>-0.04960481623253744</v>
+        <v>-0.06356213433364807</v>
       </c>
       <c r="E25">
-        <v>-0.220179028334573</v>
+        <v>-0.1853332496918338</v>
       </c>
       <c r="F25">
-        <v>0.1209693958694981</v>
+        <v>0.0582089810245377</v>
       </c>
       <c r="G25">
-        <v>0.5805174588263214</v>
+        <v>0.3106852391570092</v>
       </c>
       <c r="H25">
-        <v>826</v>
+        <v>1299</v>
       </c>
       <c r="I25">
-        <v>-0.04343191853689846</v>
+        <v>-0.06894425738707066</v>
       </c>
       <c r="J25">
-        <v>-0.2116694392608396</v>
+        <v>-0.1872257490776013</v>
       </c>
       <c r="K25">
-        <v>0.1248056021870427</v>
+        <v>0.04933723430345999</v>
       </c>
       <c r="L25">
-        <v>0.6254386826765301</v>
+        <v>0.2561230493371434</v>
       </c>
     </row>
     <row r="26">
@@ -3349,34 +3339,34 @@
         </is>
       </c>
       <c r="C26">
-        <v>824</v>
+        <v>1249</v>
       </c>
       <c r="D26">
-        <v>0.03749033801555336</v>
+        <v>0.01382881880926545</v>
       </c>
       <c r="E26">
-        <v>-0.06120558511617586</v>
+        <v>-0.06190450768342724</v>
       </c>
       <c r="F26">
-        <v>0.1361862611472826</v>
+        <v>0.08956214530195813</v>
       </c>
       <c r="G26">
-        <v>0.4656069488597318</v>
+        <v>0.7335244057656666</v>
       </c>
       <c r="H26">
-        <v>827</v>
+        <v>1299</v>
       </c>
       <c r="I26">
-        <v>0.02040132683630352</v>
+        <v>0.01080596000096313</v>
       </c>
       <c r="J26">
-        <v>-0.07797611064886345</v>
+        <v>-0.06150247127375635</v>
       </c>
       <c r="K26">
-        <v>0.1187787643214705</v>
+        <v>0.08311439127568263</v>
       </c>
       <c r="L26">
-        <v>0.6975645534260098</v>
+        <v>0.7821526814287262</v>
       </c>
     </row>
     <row r="27">
@@ -3391,38 +3381,38 @@
         </is>
       </c>
       <c r="C27">
-        <v>816</v>
+        <v>1234</v>
       </c>
       <c r="D27">
-        <v>-0.103552827419066</v>
+        <v>-0.2067238728964827</v>
       </c>
       <c r="E27">
-        <v>-0.1956186629532321</v>
+        <v>-0.352049082555779</v>
       </c>
       <c r="F27">
-        <v>-0.01148699188489996</v>
+        <v>-0.0613986632371864</v>
       </c>
       <c r="G27">
-        <v>0.02725730142949004</v>
+        <v>0.005338590176183496</v>
       </c>
       <c r="H27">
-        <v>819</v>
+        <v>1284</v>
       </c>
       <c r="I27">
-        <v>-0.1093935725154336</v>
+        <v>-0.2161478413092623</v>
       </c>
       <c r="J27">
-        <v>-0.2019077152527756</v>
+        <v>-0.3599743018620112</v>
       </c>
       <c r="K27">
-        <v>-0.01687942977809162</v>
+        <v>-0.07232138075651345</v>
       </c>
       <c r="L27">
-        <v>0.02031927596629557</v>
+        <v>0.003275372132015163</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>😀</t>
+          <t>🙋</t>
         </is>
       </c>
     </row>
@@ -3438,34 +3428,34 @@
         </is>
       </c>
       <c r="C28">
-        <v>821</v>
+        <v>1244</v>
       </c>
       <c r="D28">
-        <v>0.01104760408784153</v>
+        <v>-0.07855662610917356</v>
       </c>
       <c r="E28">
-        <v>-0.08322582315413009</v>
+        <v>-0.2169277872365009</v>
       </c>
       <c r="F28">
-        <v>0.1053210313298131</v>
+        <v>0.05981453501815372</v>
       </c>
       <c r="G28">
-        <v>0.8297495377020322</v>
+        <v>0.2690333036248042</v>
       </c>
       <c r="H28">
-        <v>824</v>
+        <v>1294</v>
       </c>
       <c r="I28">
-        <v>-0.003750564498600551</v>
+        <v>-0.04736413404596227</v>
       </c>
       <c r="J28">
-        <v>-0.09757562313305658</v>
+        <v>-0.1770948079028729</v>
       </c>
       <c r="K28">
-        <v>0.09007449413585549</v>
+        <v>0.08236653981094832</v>
       </c>
       <c r="L28">
-        <v>0.9429613966962849</v>
+        <v>0.4837940299056335</v>
       </c>
     </row>
     <row r="29">
@@ -3480,34 +3470,34 @@
         </is>
       </c>
       <c r="C29">
-        <v>823</v>
+        <v>1249</v>
       </c>
       <c r="D29">
-        <v>0.001336877580511895</v>
+        <v>0.04494305920664272</v>
       </c>
       <c r="E29">
-        <v>-0.0005918484295201637</v>
+        <v>-0.02368321343149436</v>
       </c>
       <c r="F29">
-        <v>0.003265603590543953</v>
+        <v>0.1135693318447798</v>
       </c>
       <c r="G29">
-        <v>0.175190195568936</v>
+        <v>0.2007394723336516</v>
       </c>
       <c r="H29">
-        <v>826</v>
+        <v>1299</v>
       </c>
       <c r="I29">
-        <v>0.03685663345461013</v>
+        <v>0.03230503723235363</v>
       </c>
       <c r="J29">
-        <v>-0.05355466854900809</v>
+        <v>-0.0339074839571491</v>
       </c>
       <c r="K29">
-        <v>0.1272679354582283</v>
+        <v>0.09851755842185636</v>
       </c>
       <c r="L29">
-        <v>0.4323743607541811</v>
+        <v>0.3443569180711052</v>
       </c>
     </row>
     <row r="30">
@@ -3522,34 +3512,34 @@
         </is>
       </c>
       <c r="C30">
-        <v>827</v>
+        <v>1248</v>
       </c>
       <c r="D30">
-        <v>-0.126515381736754</v>
+        <v>-0.04804202920921594</v>
       </c>
       <c r="E30">
-        <v>-0.2740177323570429</v>
+        <v>-0.1322802664285205</v>
       </c>
       <c r="F30">
-        <v>0.02098696888353488</v>
+        <v>0.0361962080100886</v>
       </c>
       <c r="G30">
-        <v>0.09245236438694435</v>
+        <v>0.2667983667107137</v>
       </c>
       <c r="H30">
-        <v>831</v>
+        <v>1301</v>
       </c>
       <c r="I30">
-        <v>-0.05865338500281474</v>
+        <v>-0.04126491289942331</v>
       </c>
       <c r="J30">
-        <v>-0.1627555159004683</v>
+        <v>-0.1214993949024199</v>
       </c>
       <c r="K30">
-        <v>0.0454487458948388</v>
+        <v>0.03896956910357331</v>
       </c>
       <c r="L30">
-        <v>0.2727781672466256</v>
+        <v>0.3180730205474224</v>
       </c>
     </row>
     <row r="31">
@@ -3564,34 +3554,34 @@
         </is>
       </c>
       <c r="C31">
-        <v>835</v>
+        <v>1264</v>
       </c>
       <c r="D31">
-        <v>-0.05725138579757068</v>
+        <v>-0.0420821849939025</v>
       </c>
       <c r="E31">
-        <v>-0.2246346007086388</v>
+        <v>-0.1279635310719472</v>
       </c>
       <c r="F31">
-        <v>0.1101318291134974</v>
+        <v>0.04379916108414218</v>
       </c>
       <c r="G31">
-        <v>0.5129203575203077</v>
+        <v>0.3422125602287824</v>
       </c>
       <c r="H31">
-        <v>839</v>
+        <v>1317</v>
       </c>
       <c r="I31">
-        <v>-0.03410436066586309</v>
+        <v>-0.03597859291939312</v>
       </c>
       <c r="J31">
-        <v>-0.1891199666245636</v>
+        <v>-0.1208426241532302</v>
       </c>
       <c r="K31">
-        <v>0.1209112452928374</v>
+        <v>0.04888543831444399</v>
       </c>
       <c r="L31">
-        <v>0.6794094427001745</v>
+        <v>0.4135261494233287</v>
       </c>
     </row>
     <row r="32">
@@ -3606,34 +3596,34 @@
         </is>
       </c>
       <c r="C32">
-        <v>827</v>
+        <v>1248</v>
       </c>
       <c r="D32">
-        <v>-0.002750756337978841</v>
+        <v>0.02008595642654655</v>
       </c>
       <c r="E32">
-        <v>-0.08924630654235755</v>
+        <v>-0.06173822528252829</v>
       </c>
       <c r="F32">
-        <v>0.08374479386639985</v>
+        <v>0.1019101381356214</v>
       </c>
       <c r="G32">
-        <v>0.9547471946517784</v>
+        <v>0.6432164651943418</v>
       </c>
       <c r="H32">
-        <v>831</v>
+        <v>1301</v>
       </c>
       <c r="I32">
-        <v>-0.008675993832657235</v>
+        <v>0.03122485664721156</v>
       </c>
       <c r="J32">
-        <v>-0.0937301682474074</v>
+        <v>-0.0544282975893706</v>
       </c>
       <c r="K32">
-        <v>0.07637818058209292</v>
+        <v>0.1168780108837937</v>
       </c>
       <c r="L32">
-        <v>0.8521618051635476</v>
+        <v>0.4844735950161931</v>
       </c>
     </row>
     <row r="33">
@@ -3648,34 +3638,34 @@
         </is>
       </c>
       <c r="C33">
-        <v>835</v>
+        <v>1264</v>
       </c>
       <c r="D33">
-        <v>-0.01465034589888329</v>
+        <v>-0.006001704575120268</v>
       </c>
       <c r="E33">
-        <v>-0.1132168548388349</v>
+        <v>-0.08790788117959863</v>
       </c>
       <c r="F33">
-        <v>0.08391616304106833</v>
+        <v>0.0759044720293581</v>
       </c>
       <c r="G33">
-        <v>0.7833434819970365</v>
+        <v>0.8944412988449174</v>
       </c>
       <c r="H33">
-        <v>839</v>
+        <v>1317</v>
       </c>
       <c r="I33">
-        <v>0.0003561823213224311</v>
+        <v>0.004630550356090871</v>
       </c>
       <c r="J33">
-        <v>-0.001143405254995666</v>
+        <v>-0.07017765499446699</v>
       </c>
       <c r="K33">
-        <v>0.001855769897640528</v>
+        <v>0.07943875570664874</v>
       </c>
       <c r="L33">
-        <v>0.6544563830598484</v>
+        <v>0.9110923968066896</v>
       </c>
     </row>
   </sheetData>
